--- a/INTLINE/data/134/DEUSTATIS/Export price index - total.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Export price index - total.xlsx
@@ -15,10 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="86">
   <si>
-    <t>Index of export prices (incl. rates of change): Germany,
-months</t>
+    <t>Index of export prices: Germany, months</t>
   </si>
   <si>
     <t>Index of export prices</t>
@@ -274,7 +273,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:10:20</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:48:58</t>
   </si>
 </sst>
 </file>
@@ -11345,28 +11344,28 @@
       <c r="B728" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="C728" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="D728" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="E728" t="s" s="10">
-        <v>83</v>
+      <c r="C728" t="n" s="10">
+        <v>120.7</v>
+      </c>
+      <c r="D728" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="E728" t="n" s="10">
+        <v>15.9</v>
       </c>
     </row>
     <row r="729">
       <c r="B729" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="C729" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="D729" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="E729" t="s" s="10">
-        <v>83</v>
+      <c r="C729" t="n" s="10">
+        <v>121.7</v>
+      </c>
+      <c r="D729" t="n" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E729" t="n" s="10">
+        <v>16.0</v>
       </c>
     </row>
     <row r="730">
@@ -11501,7 +11500,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:10:24&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:49:03&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Export price index - total.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Export price index - total.xlsx
@@ -273,7 +273,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:48:58</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 07:00:04</t>
   </si>
 </sst>
 </file>
@@ -11500,7 +11500,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:49:03&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 07:00:09&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>